--- a/docs/documentation/informasjonsmodell/Kodeliste_ResultatregnskapOgBalanse.xlsx
+++ b/docs/documentation/informasjonsmodell/Kodeliste_ResultatregnskapOgBalanse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="6050"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="481">
   <si>
     <t>forekomsttype</t>
   </si>
@@ -368,12 +368,6 @@
     <t>Andre finansielle instrumenter</t>
   </si>
   <si>
-    <t>1895</t>
-  </si>
-  <si>
-    <t>Andel i selskap med deltakerfastsetting</t>
-  </si>
-  <si>
     <t>1900</t>
   </si>
   <si>
@@ -1242,15 +1236,6 @@
   </si>
   <si>
     <t>Fradragsføring av negativ gevinst- og tapskonto</t>
-  </si>
-  <si>
-    <t>7895</t>
-  </si>
-  <si>
-    <t>Skattemessig tap på fordringer</t>
-  </si>
-  <si>
-    <t>Konstaterte tap på fordringer</t>
   </si>
   <si>
     <t>7897</t>
@@ -1838,22 +1823,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="F203" sqref="F203"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="61.90625" customWidth="1"/>
+    <col min="5" max="5" width="59.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +1898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1933,7 +1918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1973,7 +1958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1993,7 +1978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +1998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2033,7 +2018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2053,7 +2038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2113,7 +2098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2153,7 +2138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2213,7 +2198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2253,7 +2238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2273,7 +2258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -2293,7 +2278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -2353,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2393,7 +2378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -2413,7 +2398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -2473,7 +2458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -2593,7 +2578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2633,7 +2618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2653,7 +2638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -2673,7 +2658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>12</v>
       </c>
@@ -2693,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -2713,7 +2698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
@@ -2730,10 +2715,10 @@
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -2750,10 +2735,10 @@
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -2773,7 +2758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -2790,10 +2775,10 @@
         <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2813,7 +2798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
@@ -2853,7 +2838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -2873,7 +2858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -2887,13 +2872,13 @@
         <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -2901,10 +2886,10 @@
         <v>84</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>118</v>
@@ -2913,7 +2898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -2930,55 +2915,55 @@
         <v>120</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>124</v>
@@ -2993,12 +2978,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>126</v>
@@ -3007,178 +2992,178 @@
         <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>152</v>
@@ -3193,52 +3178,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>484</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>157</v>
@@ -3247,18 +3232,18 @@
         <v>158</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>159</v>
@@ -3267,18 +3252,18 @@
         <v>160</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>161</v>
@@ -3287,18 +3272,18 @@
         <v>162</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>163</v>
@@ -3307,18 +3292,18 @@
         <v>164</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>165</v>
@@ -3330,15 +3315,15 @@
         <v>166</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>167</v>
@@ -3353,12 +3338,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>169</v>
@@ -3373,12 +3358,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>171</v>
@@ -3390,15 +3375,15 @@
         <v>172</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>173</v>
@@ -3413,12 +3398,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>175</v>
@@ -3433,12 +3418,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>177</v>
@@ -3453,12 +3438,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>179</v>
@@ -3470,15 +3455,15 @@
         <v>180</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>181</v>
@@ -3490,15 +3475,15 @@
         <v>182</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>183</v>
@@ -3507,18 +3492,18 @@
         <v>184</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>185</v>
@@ -3527,18 +3512,18 @@
         <v>186</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>187</v>
@@ -3547,18 +3532,18 @@
         <v>188</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>189</v>
@@ -3570,15 +3555,15 @@
         <v>190</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>191</v>
@@ -3587,18 +3572,18 @@
         <v>192</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>193</v>
@@ -3607,18 +3592,18 @@
         <v>194</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>195</v>
@@ -3627,18 +3612,18 @@
         <v>196</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>485</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>197</v>
@@ -3647,18 +3632,18 @@
         <v>198</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>199</v>
@@ -3667,18 +3652,18 @@
         <v>200</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>201</v>
@@ -3690,15 +3675,15 @@
         <v>202</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>203</v>
@@ -3713,12 +3698,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>205</v>
@@ -3733,12 +3718,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>207</v>
@@ -3753,12 +3738,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>209</v>
@@ -3770,15 +3755,15 @@
         <v>210</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>211</v>
@@ -3790,35 +3775,35 @@
         <v>212</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>216</v>
@@ -3830,35 +3815,35 @@
         <v>217</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>221</v>
@@ -3870,15 +3855,15 @@
         <v>222</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>223</v>
@@ -3893,12 +3878,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>225</v>
@@ -3913,12 +3898,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>227</v>
@@ -3933,12 +3918,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>229</v>
@@ -3947,18 +3932,18 @@
         <v>230</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>231</v>
@@ -3967,18 +3952,18 @@
         <v>232</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>233</v>
@@ -3993,12 +3978,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>235</v>
@@ -4013,12 +3998,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>237</v>
@@ -4033,12 +4018,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>231</v>
+        <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>239</v>
@@ -4047,18 +4032,18 @@
         <v>240</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>241</v>
@@ -4067,18 +4052,18 @@
         <v>242</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>243</v>
@@ -4093,12 +4078,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>245</v>
@@ -4110,15 +4095,15 @@
         <v>246</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>247</v>
@@ -4130,15 +4115,15 @@
         <v>248</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>249</v>
@@ -4147,38 +4132,38 @@
         <v>250</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>254</v>
@@ -4193,12 +4178,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>256</v>
@@ -4213,12 +4198,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>258</v>
@@ -4230,15 +4215,15 @@
         <v>259</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>260</v>
@@ -4253,12 +4238,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>262</v>
@@ -4273,12 +4258,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>264</v>
@@ -4293,12 +4278,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>266</v>
@@ -4310,15 +4295,15 @@
         <v>267</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>268</v>
@@ -4333,12 +4318,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>270</v>
@@ -4350,15 +4335,15 @@
         <v>271</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>272</v>
@@ -4370,15 +4355,15 @@
         <v>273</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>274</v>
@@ -4387,18 +4372,18 @@
         <v>275</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>276</v>
@@ -4407,18 +4392,18 @@
         <v>277</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>278</v>
@@ -4433,12 +4418,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>280</v>
@@ -4453,12 +4438,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>282</v>
@@ -4473,12 +4458,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>284</v>
@@ -4487,18 +4472,18 @@
         <v>285</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>286</v>
@@ -4507,64 +4492,64 @@
         <v>287</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>296</v>
@@ -4573,12 +4558,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>297</v>
@@ -4590,15 +4575,15 @@
         <v>298</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>299</v>
@@ -4610,15 +4595,15 @@
         <v>300</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>301</v>
@@ -4627,38 +4612,38 @@
         <v>302</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>306</v>
@@ -4667,18 +4652,18 @@
         <v>307</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>308</v>
@@ -4690,15 +4675,15 @@
         <v>309</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>310</v>
@@ -4710,15 +4695,15 @@
         <v>311</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>312</v>
@@ -4727,238 +4712,238 @@
         <v>313</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>346</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>347</v>
@@ -4967,64 +4952,64 @@
         <v>348</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>357</v>
@@ -5033,12 +5018,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>358</v>
@@ -5053,12 +5038,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>360</v>
@@ -5067,24 +5052,24 @@
         <v>361</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>364</v>
@@ -5093,12 +5078,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>365</v>
@@ -5113,12 +5098,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>367</v>
@@ -5133,12 +5118,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>369</v>
@@ -5150,15 +5135,15 @@
         <v>370</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>371</v>
@@ -5170,15 +5155,15 @@
         <v>372</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>373</v>
@@ -5187,104 +5172,104 @@
         <v>374</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F168" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F169" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>389</v>
@@ -5293,12 +5278,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>390</v>
@@ -5313,12 +5298,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>392</v>
@@ -5333,12 +5318,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>394</v>
@@ -5353,12 +5338,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>396</v>
@@ -5370,15 +5355,15 @@
         <v>397</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>398</v>
@@ -5390,15 +5375,15 @@
         <v>399</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>400</v>
@@ -5413,12 +5398,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>402</v>
@@ -5430,15 +5415,15 @@
         <v>403</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>404</v>
@@ -5453,12 +5438,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>406</v>
@@ -5467,238 +5452,238 @@
         <v>407</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F190" s="2" t="s">
+      <c r="D191" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D191" s="2" t="s">
+    <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>431</v>
@@ -5707,18 +5692,18 @@
         <v>432</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>433</v>
@@ -5730,486 +5715,446 @@
         <v>434</v>
       </c>
       <c r="F194" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F196" s="2" t="s">
+      <c r="D197" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D198" s="2" t="s">
+    <row r="199" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C199" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="D202" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="D204" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E204" s="2" t="s">
+      <c r="C207" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D206" s="2" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="C208" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C214" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C216" s="2" t="s">
+      <c r="D216" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F218" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6220,21 +6165,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010018076FC20236D947B4797F9A9A1C82EE" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="894daf8daa1de2f793531debf6c103af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9dc4160-d007-470e-a564-31ccc4912fa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="573870912a1d64be493114dcd5b462f8" ns2:_="">
     <xsd:import namespace="e9dc4160-d007-470e-a564-31ccc4912fa9"/>
@@ -6382,24 +6312,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68659116-56BA-4EF0-BD62-917B19B54CFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBADB97E-9DEB-4128-B928-A0045E91948A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575412FE-0745-4E67-9505-9E545751CDFE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6415,4 +6343,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBADB97E-9DEB-4128-B928-A0045E91948A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68659116-56BA-4EF0-BD62-917B19B54CFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e9dc4160-d007-470e-a564-31ccc4912fa9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>